--- a/LF/PreTAS/Nigeria/apri 2024/ng_lf_pretas_202404_3_resultat_fts.xlsx
+++ b/LF/PreTAS/Nigeria/apri 2024/ng_lf_pretas_202404_3_resultat_fts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\apri 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C859035F-6840-46C7-B333-C726E0060EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5F216A-02A6-4CBF-89F6-0543F9925ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="155">
   <si>
     <t>type</t>
   </si>
@@ -90,18 +90,12 @@
     <t>d_cluster_name</t>
   </si>
   <si>
-    <t>Select the school</t>
-  </si>
-  <si>
     <t>district = ${d_district}</t>
   </si>
   <si>
     <t>d_cluster_id</t>
   </si>
   <si>
-    <t>Enter the school ID</t>
-  </si>
-  <si>
     <t>school = ${d_cluster_name}</t>
   </si>
   <si>
@@ -391,6 +385,102 @@
   </si>
   <si>
     <t>This ID is already selected</t>
+  </si>
+  <si>
+    <t>Refused</t>
+  </si>
+  <si>
+    <t>Length of Stay in the LGA</t>
+  </si>
+  <si>
+    <t>d_lenght_stay_lga</t>
+  </si>
+  <si>
+    <t>${d_final_result} = 'Positive'</t>
+  </si>
+  <si>
+    <t>follow_up_note</t>
+  </si>
+  <si>
+    <t>Follow up form for positive cases</t>
+  </si>
+  <si>
+    <t>If Yes, how many times taken?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you ever swallowed LF medicines </t>
+  </si>
+  <si>
+    <t>d_swallowed_lf_med</t>
+  </si>
+  <si>
+    <t>d_nd_med_taked</t>
+  </si>
+  <si>
+    <t>${d_swallowed_lf_med} = 'Yes'</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>select_one team</t>
+  </si>
+  <si>
+    <t>d_parent_name</t>
+  </si>
+  <si>
+    <t>Parent/Guardian's name &amp; Contact</t>
+  </si>
+  <si>
+    <t>d_have_bed_net</t>
+  </si>
+  <si>
+    <t>Do you have mosquito net? (Y/N)</t>
+  </si>
+  <si>
+    <t>Do you sleep inside mosquito net? (Y/N)</t>
+  </si>
+  <si>
+    <t>d_sleep_bed_net</t>
+  </si>
+  <si>
+    <t>d_village_community</t>
+  </si>
+  <si>
+    <t>Village/Community</t>
+  </si>
+  <si>
+    <t>d_region</t>
+  </si>
+  <si>
+    <t>Select your Region</t>
+  </si>
+  <si>
+    <t>(Apr 2024) - 3. Nigeria - Pre TAS LF FTS Form V2</t>
+  </si>
+  <si>
+    <t>ng_pretas_fts_202404_v2</t>
+  </si>
+  <si>
+    <t>Select the community</t>
+  </si>
+  <si>
+    <t>Enter the community ID</t>
   </si>
   <si>
     <t>if(${d_result1}="Positive" and ${d_result2}="Positive", "Positive",
@@ -400,7 +490,9 @@
     if(${d_result1}="Invalid" and ${d_result2}="Positive", "Positive", 
      if(${d_result1}="Invalid" and ${d_result2}="Invalid", "Invalid", 
       if(${d_result1}="Invalid" and ${d_result2}="Refused", "Invalid", 
-       if(${d_result1}="Invalid" and ${d_result2}="Negative", "Negative", "Negative")
+       if(${d_result1}="Invalid" and ${d_result2}="Negative", "Negative",
+        if(${d_result1}="Refused", "Refused", "Negative")
+       )
 	  )
 	 )
     )
@@ -410,115 +502,7 @@
 )</t>
   </si>
   <si>
-    <t>Refused</t>
-  </si>
-  <si>
-    <t>Length of Stay in the LGA</t>
-  </si>
-  <si>
-    <t>d_lenght_stay_lga</t>
-  </si>
-  <si>
-    <t>${d_final_result} = 'Positive'</t>
-  </si>
-  <si>
-    <t>follow_up_note</t>
-  </si>
-  <si>
-    <t>Follow up form for positive cases</t>
-  </si>
-  <si>
-    <t>If Yes, how many times taken?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you ever swallowed LF medicines </t>
-  </si>
-  <si>
-    <t>d_swallowed_lf_med</t>
-  </si>
-  <si>
-    <t>d_nd_med_taked</t>
-  </si>
-  <si>
-    <t>${d_swallowed_lf_med} = 'Yes'</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>select_one team</t>
-  </si>
-  <si>
-    <t>d_parent_name</t>
-  </si>
-  <si>
-    <t>Parent/Guardian's name &amp; Contact</t>
-  </si>
-  <si>
-    <t>d_have_bed_net</t>
-  </si>
-  <si>
-    <t>Do you have mosquito net? (Y/N)</t>
-  </si>
-  <si>
-    <t>Do you sleep inside mosquito net? (Y/N)</t>
-  </si>
-  <si>
-    <t>d_sleep_bed_net</t>
-  </si>
-  <si>
-    <t>d_village_community</t>
-  </si>
-  <si>
-    <t>Village/Community</t>
-  </si>
-  <si>
-    <t>ng_lf_pretas_202404_3_resultat_fts</t>
-  </si>
-  <si>
-    <t>(Apr 2024) - 3. Nigeria - Pre TAS LF FTS Form</t>
-  </si>
-  <si>
-    <t>ng_pretas_fts_202404</t>
-  </si>
-  <si>
-    <t>d_region</t>
-  </si>
-  <si>
-    <t>Select your Region</t>
+    <t>ng_lf_pretas_202404_3_fts_v2</t>
   </si>
 </sst>
 </file>
@@ -1045,24 +1029,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="23.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="27" customWidth="1"/>
     <col min="3" max="3" width="42.625" style="37" customWidth="1"/>
     <col min="4" max="4" width="41.25" style="38" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="27" customWidth="1"/>
     <col min="6" max="6" width="16.875" style="27" customWidth="1"/>
     <col min="7" max="7" width="29.5" style="38" customWidth="1"/>
     <col min="8" max="8" width="49.375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="24.875" style="27" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="27" customWidth="1"/>
     <col min="11" max="11" width="35.375" style="27" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="27" customWidth="1"/>
@@ -1113,7 +1097,7 @@
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="47.25">
       <c r="A2" s="29" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>14</v>
@@ -1138,13 +1122,13 @@
     </row>
     <row r="3" spans="1:14" s="16" customFormat="1">
       <c r="A3" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D3" s="39"/>
       <c r="G3" s="39"/>
@@ -1157,7 +1141,7 @@
     </row>
     <row r="4" spans="1:14" s="16" customFormat="1">
       <c r="A4" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>18</v>
@@ -1182,13 +1166,13 @@
     </row>
     <row r="5" spans="1:14" s="16" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="29"/>
@@ -1202,18 +1186,18 @@
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="16" customFormat="1">
       <c r="A6" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="29"/>
@@ -1227,15 +1211,15 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="16" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -1244,7 +1228,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="11"/>
       <c r="I7" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
@@ -1253,13 +1237,13 @@
     </row>
     <row r="8" spans="1:14" s="16" customFormat="1">
       <c r="A8" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
@@ -1275,10 +1259,10 @@
     </row>
     <row r="9" spans="1:14" s="16" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
@@ -1287,7 +1271,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="11"/>
       <c r="I9" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -1296,10 +1280,10 @@
     </row>
     <row r="10" spans="1:14" s="16" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
@@ -1308,7 +1292,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="11"/>
       <c r="I10" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -1317,13 +1301,13 @@
     </row>
     <row r="11" spans="1:14" s="16" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="10"/>
@@ -1340,24 +1324,24 @@
     </row>
     <row r="12" spans="1:14" s="16" customFormat="1" ht="31.5">
       <c r="A12" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="30"/>
       <c r="F12" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="29" t="s">
@@ -1369,20 +1353,20 @@
     </row>
     <row r="13" spans="1:14" s="16" customFormat="1">
       <c r="A13" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="29"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
       <c r="H13" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="29" t="s">
@@ -1394,22 +1378,22 @@
     </row>
     <row r="14" spans="1:14" s="16" customFormat="1" ht="31.5">
       <c r="A14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="D14" s="31" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="33"/>
       <c r="H14" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="29" t="s">
@@ -1421,20 +1405,20 @@
     </row>
     <row r="15" spans="1:14" s="16" customFormat="1">
       <c r="A15" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>37</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="33"/>
       <c r="H15" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="29" t="s">
@@ -1446,20 +1430,20 @@
     </row>
     <row r="16" spans="1:14" s="16" customFormat="1" ht="31.5">
       <c r="A16" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="33"/>
       <c r="H16" s="30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="29" t="s">
@@ -1471,10 +1455,10 @@
     </row>
     <row r="17" spans="1:13" s="16" customFormat="1">
       <c r="A17" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -1482,10 +1466,10 @@
       <c r="F17" s="29"/>
       <c r="G17" s="33"/>
       <c r="H17" s="30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J17" s="29" t="s">
         <v>17</v>
@@ -1496,20 +1480,20 @@
     </row>
     <row r="18" spans="1:13" s="16" customFormat="1" ht="63">
       <c r="A18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>45</v>
       </c>
       <c r="D18" s="36"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="33"/>
       <c r="H18" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
@@ -1519,20 +1503,20 @@
     </row>
     <row r="19" spans="1:13" s="16" customFormat="1" ht="31.5">
       <c r="A19" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="36"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="33"/>
       <c r="H19" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I19" s="29"/>
       <c r="J19" s="29" t="s">
@@ -1544,22 +1528,22 @@
     </row>
     <row r="20" spans="1:13" ht="31.5">
       <c r="A20" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="36"/>
       <c r="H20" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I20" s="34"/>
       <c r="J20" s="29" t="s">
@@ -1571,22 +1555,22 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>53</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="36"/>
       <c r="H21" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I21" s="34"/>
       <c r="J21" s="29" t="s">
@@ -1598,22 +1582,22 @@
     </row>
     <row r="22" spans="1:13" ht="31.5">
       <c r="A22" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
       <c r="G22" s="36"/>
       <c r="H22" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="29" t="s">
@@ -1625,10 +1609,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="36"/>
@@ -1636,10 +1620,10 @@
       <c r="F23" s="34"/>
       <c r="G23" s="36"/>
       <c r="H23" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
@@ -1648,53 +1632,53 @@
     </row>
     <row r="24" spans="1:13" ht="56.25" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="28" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I27" s="28"/>
       <c r="J27" s="27" t="s">
@@ -1706,13 +1690,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I28" s="28"/>
       <c r="J28" s="27" t="s">
@@ -1721,16 +1705,16 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I29" s="28"/>
       <c r="J29" s="27" t="s">
@@ -1739,16 +1723,16 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="27" t="s">
@@ -1760,13 +1744,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I31" s="28"/>
       <c r="J31" s="27" t="s">
@@ -1775,16 +1759,16 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I32" s="28"/>
       <c r="J32" s="27" t="s">
@@ -1793,16 +1777,16 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I33" s="28"/>
       <c r="J33" s="27" t="s">
@@ -1811,18 +1795,18 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -1839,18 +1823,18 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1861,11 +1845,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD13"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1877,7 +1861,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1886,304 +1870,268 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1">
       <c r="A4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>138</v>
-      </c>
       <c r="C4" s="40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1">
       <c r="A6" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1">
-      <c r="A7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1">
-      <c r="A8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="6" customFormat="1">
-      <c r="A9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="6" customFormat="1">
-      <c r="A11" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="6" customFormat="1">
-      <c r="A12" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="6" customFormat="1">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>71</v>
+      <c r="A14" t="s">
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>71</v>
+      <c r="A15" t="s">
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="4"/>
@@ -3387,43 +3335,13 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="4"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="4"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="6"/>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="4"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="4"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="6"/>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="4"/>
-      <c r="B274" s="6"/>
-      <c r="C274" s="6"/>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="4"/>
-      <c r="B275" s="6"/>
-      <c r="C275" s="6"/>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="4"/>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:C29">
-    <sortCondition ref="B22:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:C23">
+    <sortCondition ref="B16:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3433,7 +3351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3447,27 +3365,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>17</v>
